--- a/data/trans_media/IQ39A-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ39A-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,36; 48,42</t>
+          <t>40,25; 48,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,95; 38,71</t>
+          <t>28,37; 38,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,13; 48,15</t>
+          <t>30,97; 48,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,27; 52,44</t>
+          <t>40,7; 51,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,39; 53,37</t>
+          <t>30,06; 53,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,78; 38,5</t>
+          <t>28,7; 38,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,43; 47,9</t>
+          <t>41,51; 48,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31,96; 41,79</t>
+          <t>32,28; 42,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,25; 43,1</t>
+          <t>32,42; 42,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,3; 40,6</t>
+          <t>37,18; 40,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,93; 41,41</t>
+          <t>36,15; 41,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,21; 39,89</t>
+          <t>35,15; 39,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,0; 43,5</t>
+          <t>40,0; 43,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,24; 43,13</t>
+          <t>39,27; 42,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,73; 40,92</t>
+          <t>35,73; 40,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,06; 40,23</t>
+          <t>35,93; 40,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,36; 39,52</t>
+          <t>9,29; 39,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,73; 41,31</t>
+          <t>38,83; 41,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,67; 40,48</t>
+          <t>36,59; 40,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,38; 39,53</t>
+          <t>36,3; 39,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,1; 41,11</t>
+          <t>24,98; 40,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,89; 39,91</t>
+          <t>36,81; 39,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,18; 39,86</t>
+          <t>36,02; 40,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,19; 39,64</t>
+          <t>36,2; 39,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,35; 47,31</t>
+          <t>36,77; 47,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,76; 40,58</t>
+          <t>37,87; 40,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,39; 38,68</t>
+          <t>35,63; 38,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,31; 39,5</t>
+          <t>35,58; 39,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,37; 39,46</t>
+          <t>25,0; 38,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,88; 39,85</t>
+          <t>37,9; 39,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>36,31; 38,8</t>
+          <t>36,31; 38,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,49; 39,0</t>
+          <t>36,14; 38,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,6; 43,16</t>
+          <t>33,54; 43,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,37 +1144,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,47; 39,61</t>
+          <t>36,43; 39,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,42; 39,52</t>
+          <t>35,48; 39,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,3; 39,48</t>
+          <t>35,27; 39,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 40,0</t>
+          <t>4,98; 40,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,05; 40,65</t>
+          <t>37,18; 40,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,75; 38,87</t>
+          <t>34,93; 38,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,63; 38,85</t>
+          <t>34,52; 38,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,22 +1184,22 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,24; 39,56</t>
+          <t>37,32; 39,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,66; 38,5</t>
+          <t>35,69; 38,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,75; 38,61</t>
+          <t>35,57; 38,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,71; 38,31</t>
+          <t>13,48; 38,34</t>
         </is>
       </c>
     </row>
@@ -1284,37 +1284,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,86; 40,46</t>
+          <t>37,89; 40,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,51; 39,61</t>
+          <t>36,43; 39,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,73; 38,73</t>
+          <t>35,95; 38,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,37; 40,0</t>
+          <t>17,89; 40,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,28; 40,25</t>
+          <t>36,99; 40,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,18; 38,95</t>
+          <t>36,32; 39,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,77; 38,02</t>
+          <t>34,98; 38,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,22 +1324,22 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,89; 40,01</t>
+          <t>37,94; 39,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36,79; 38,94</t>
+          <t>36,93; 38,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,01; 38,17</t>
+          <t>35,91; 38,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,56; 39,31</t>
+          <t>22,42; 39,3</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,18; 39,69</t>
+          <t>38,07; 39,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,94; 38,86</t>
+          <t>36,96; 38,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,69; 38,55</t>
+          <t>36,77; 38,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,31; 40,3</t>
+          <t>27,52; 40,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,63; 40,31</t>
+          <t>38,58; 40,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,67; 38,39</t>
+          <t>36,64; 38,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,1; 38,03</t>
+          <t>36,12; 38,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,83; 37,82</t>
+          <t>28,37; 38,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,63; 39,73</t>
+          <t>38,62; 39,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37,12; 38,39</t>
+          <t>37,05; 38,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>36,71; 37,98</t>
+          <t>36,7; 37,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30,46; 38,78</t>
+          <t>30,27; 38,51</t>
         </is>
       </c>
     </row>
